--- a/testApi/src/main/resources/data/mtxshop_data.xlsx
+++ b/testApi/src/main/resources/data/mtxshop_data.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/JAVA_Study/JAVA_CODE/testApi/src/main/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B869884-DF61-3845-BE15-D5F08D01CCE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617A25C6-E82A-FB48-987A-E108D976D690}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="7180" windowWidth="23040" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10560" yWindow="740" windowWidth="23040" windowHeight="12080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="添加购物车" sheetId="1" r:id="rId1"/>
     <sheet name="提交订单" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="提交订单修改" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="46">
   <si>
     <t>数据用例名称</t>
   </si>
@@ -183,6 +183,35 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>要修改的参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id=166623</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id=34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id=5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_id=7
+stock=300</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy_type=sjfdg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>address_id=8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -201,6 +230,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -209,6 +239,7 @@
       <sz val="13"/>
       <color rgb="FF008000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -285,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +346,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -742,7 +779,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -993,12 +1030,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
